--- a/src/main/resources/stations.xlsx
+++ b/src/main/resources/stations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Erail_OrangeAutomationFramework\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB20BD93-A823-4801-8F85-A03D970CED53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29542129-3926-473A-9F73-01816AC4363E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
   <si>
     <t>Denduluru
 DEL</t>
@@ -391,7 +391,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:XFD1048576"/>
+      <selection activeCell="K9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/stations.xlsx
+++ b/src/main/resources/stations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
   <si>
     <t>Denduluru
 DEL</t>

--- a/src/main/resources/stations.xlsx
+++ b/src/main/resources/stations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="4">
   <si>
     <t>Denduluru
 DEL</t>

--- a/src/main/resources/stations.xlsx
+++ b/src/main/resources/stations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Erail_OrangeAutomationFramework\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29542129-3926-473A-9F73-01816AC4363E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6155FBE7-8221-41A8-BDB1-4EB5FFB942F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="4">
   <si>
     <t>Denduluru
 DEL</t>
@@ -391,7 +391,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="A1:XFD1048576"/>
+      <selection activeCell="Q5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/stations.xlsx
+++ b/src/main/resources/stations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Erail_OrangeAutomationFramework\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6155FBE7-8221-41A8-BDB1-4EB5FFB942F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466991C0-4B66-452E-8F36-04FC2576FE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+  <si>
+    <t>Villianur
+VI</t>
+  </si>
+  <si>
+    <t>Vidisha
+BHS</t>
+  </si>
+  <si>
+    <t>Viduraswatha
+VWA</t>
+  </si>
+  <si>
+    <t>Vidyanagar
+VAR</t>
+  </si>
+  <si>
+    <t>Vidyapatidham
+VPDA</t>
+  </si>
+  <si>
+    <t>Vidyasagar
+VDS</t>
+  </si>
+  <si>
+    <t>Vidyavihar
+VVH</t>
+  </si>
+  <si>
+    <t>Vijapur
+VJF</t>
+  </si>
+  <si>
+    <t>Vijayamangalam
+VZ</t>
+  </si>
+  <si>
+    <t>Vijayanagar
+VJR</t>
+  </si>
+  <si>
+    <t>Vijayapura
+BJP</t>
+  </si>
+  <si>
+    <t>Vijayawada Jn
+BZA</t>
+  </si>
   <si>
     <t>Denduluru
 DEL</t>
@@ -388,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="A1:XFD1048576"/>
+      <selection activeCell="E5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,22 +449,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>3</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/stations.xlsx
+++ b/src/main/resources/stations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="16">
   <si>
     <t>Villianur
 VI</t>

--- a/src/main/resources/stations.xlsx
+++ b/src/main/resources/stations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="16">
   <si>
     <t>Villianur
 VI</t>
